--- a/Repos_OldStuff/PreliminaryData_APSData/old/DynamicCA.xlsx
+++ b/Repos_OldStuff/PreliminaryData_APSData/old/DynamicCA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\DropletJumpWedge\Excel\old\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\DropletJumpWedge\DropletJumpWedge\Repos_OldStuff\PreliminaryData_APSData\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="9870" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27885" windowHeight="6690" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Chart2" sheetId="11" state="hidden" r:id="rId1"/>
@@ -352,7 +352,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +438,9 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -493,7 +496,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$4</c:f>
+              <c:f>Sheet1!$U$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -528,7 +531,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$5:$Q$14</c:f>
+              <c:f>Sheet1!$R$5:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -567,7 +570,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$5:$T$14</c:f>
+              <c:f>Sheet1!$U$5:$U$14</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -582,7 +585,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$4</c:f>
+              <c:f>Sheet1!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -617,7 +620,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$5:$Q$14</c:f>
+              <c:f>Sheet1!$R$5:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -656,7 +659,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$5:$V$14</c:f>
+              <c:f>Sheet1!$W$5:$W$14</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -671,7 +674,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Y$4</c:f>
+              <c:f>Sheet1!$Z$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -706,7 +709,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$5:$Q$14</c:f>
+              <c:f>Sheet1!$R$5:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -745,7 +748,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$5:$Y$14</c:f>
+              <c:f>Sheet1!$Z$5:$Z$14</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -760,7 +763,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AA$4</c:f>
+              <c:f>Sheet1!$AB$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -795,7 +798,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$5:$Q$14</c:f>
+              <c:f>Sheet1!$R$5:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -834,7 +837,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AA$5:$AA$14</c:f>
+              <c:f>Sheet1!$AB$5:$AB$14</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -1603,6 +1606,347 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$5:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.6215000000000259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.927999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.256500000000017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.715000000000032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.676000000000016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.963999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8020000000000209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.739500000000021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.895000000000039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8090000000000259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4293-4727-93B3-D3F6C4F6B87A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="285772984"/>
+        <c:axId val="282250624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="285772984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="282250624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="282250624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285772984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -1954,7 +2298,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2097,7 +2440,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2178,7 +2520,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2240,7 +2581,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2265,7 +2606,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AB$4</c:f>
+              <c:f>Sheet1!$AC$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2312,7 +2653,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$5:$Q$14</c:f>
+              <c:f>Sheet1!$R$5:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2351,7 +2692,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$5:$AB$14</c:f>
+              <c:f>Sheet1!$AC$5:$AC$14</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2400,7 +2741,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AC$4</c:f>
+              <c:f>Sheet1!$AD$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2447,7 +2788,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$5:$Q$14</c:f>
+              <c:f>Sheet1!$R$5:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2486,7 +2827,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AC$5:$AC$14</c:f>
+              <c:f>Sheet1!$AD$5:$AD$14</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2603,7 +2944,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2745,7 +3085,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2826,7 +3165,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3048,6 +3386,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4597,6 +4975,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5212,6 +6106,41 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>162484</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1271867</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8663697" cy="6282447"/>
@@ -5237,7 +6166,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -5527,10 +6456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI30"/>
+  <dimension ref="A1:BK30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+      <selection activeCell="N5" sqref="N5:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5540,36 +6469,39 @@
     <col min="4" max="4" width="23.125" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="10" width="20.625" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="24.625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="14" width="20.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.625" style="22" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="26" customWidth="1"/>
-    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.75" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="16.75" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="19.75" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="8.75" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="19.5" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="25.375" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="22.625" style="1" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="8.25" style="1" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="24.625" style="1" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="20.625" style="22" customWidth="1"/>
-    <col min="32" max="32" width="2.625" style="26" hidden="1" customWidth="1"/>
-    <col min="33" max="43" width="16.75" style="1" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="20.375" style="17" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="18.75" style="17" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="16.75" style="17" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="3.5" style="26" hidden="1" customWidth="1"/>
-    <col min="48" max="61" width="21.25" style="1" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="63" max="16384" width="9" style="1"/>
+    <col min="12" max="13" width="20.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.625" style="22" customWidth="1"/>
+    <col min="15" max="15" width="20.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.625" style="22" customWidth="1"/>
+    <col min="17" max="17" width="8.875" style="26" customWidth="1"/>
+    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.75" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="16.75" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="19.75" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="8.75" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="25.375" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5" style="1" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="22.625" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="8.25" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="24.625" style="1" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.75" style="22" customWidth="1"/>
+    <col min="32" max="32" width="20.625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="20.625" style="22" customWidth="1"/>
+    <col min="34" max="34" width="2.625" style="26" hidden="1" customWidth="1"/>
+    <col min="35" max="45" width="16.75" style="1" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="20.375" style="17" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="18.75" style="17" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="16.75" style="17" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="3.5" style="26" hidden="1" customWidth="1"/>
+    <col min="50" max="63" width="21.25" style="1" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="65" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -5591,70 +6523,72 @@
       <c r="M1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="Q1" s="23" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="22"/>
+      <c r="R1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AC1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="AD1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AG1" s="18" t="s">
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="22"/>
+      <c r="AI1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AJ1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AI1" s="19">
+      <c r="AK1" s="19">
         <f>11/1322</f>
         <v>8.3207261724659604E-3</v>
       </c>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
       <c r="AL1" s="19"/>
       <c r="AM1" s="19"/>
       <c r="AN1" s="19"/>
       <c r="AO1" s="19"/>
       <c r="AP1" s="19"/>
       <c r="AQ1" s="19"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
       <c r="AT1" s="21"/>
-      <c r="AV1" s="18" t="s">
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AX1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="AW1" s="18" t="s">
+      <c r="AY1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AX1" s="19">
+      <c r="AZ1" s="19">
         <f>12/1278</f>
         <v>9.3896713615023476E-3</v>
       </c>
-      <c r="AY1" s="19"/>
-      <c r="AZ1" s="19"/>
       <c r="BA1" s="19"/>
       <c r="BB1" s="19"/>
       <c r="BC1" s="19"/>
       <c r="BD1" s="19"/>
       <c r="BE1" s="19"/>
       <c r="BF1" s="19"/>
+      <c r="BG1" s="19"/>
+      <c r="BH1" s="19"/>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
@@ -5679,35 +6613,35 @@
       <c r="M2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="Q2" s="24" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="22"/>
+      <c r="R2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="3">
         <f>110/1235.1</f>
         <v>8.9061614444174569E-2</v>
       </c>
-      <c r="S2" s="8">
+      <c r="T2" s="8">
         <v>3.2240000000000002</v>
       </c>
-      <c r="T2" s="14">
+      <c r="U2" s="14">
         <f>360-359.21</f>
         <v>0.79000000000002046</v>
       </c>
-      <c r="U2" s="3">
-        <f>S2+T2</f>
+      <c r="V2" s="3">
+        <f>T2+U2</f>
         <v>4.0140000000000207</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AC2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="25" t="s">
+      <c r="AD2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
+      <c r="AE2" s="27"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
       <c r="AK2" s="19"/>
       <c r="AL2" s="19"/>
       <c r="AM2" s="19"/>
@@ -5715,13 +6649,13 @@
       <c r="AO2" s="19"/>
       <c r="AP2" s="19"/>
       <c r="AQ2" s="19"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
       <c r="AT2" s="21"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="19"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
       <c r="AZ2" s="19"/>
       <c r="BA2" s="19"/>
       <c r="BB2" s="19"/>
@@ -5729,45 +6663,47 @@
       <c r="BD2" s="19"/>
       <c r="BE2" s="19"/>
       <c r="BF2" s="19"/>
-      <c r="BG2" s="22"/>
-      <c r="BH2" s="22"/>
+      <c r="BG2" s="19"/>
+      <c r="BH2" s="19"/>
       <c r="BI2" s="22"/>
+      <c r="BJ2" s="22"/>
+      <c r="BK2" s="22"/>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="25"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="2"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="25"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="25"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="25"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
       <c r="AK3" s="19"/>
       <c r="AL3" s="19"/>
       <c r="AM3" s="19"/>
@@ -5775,13 +6711,13 @@
       <c r="AO3" s="19"/>
       <c r="AP3" s="19"/>
       <c r="AQ3" s="19"/>
-      <c r="AR3" s="21"/>
-      <c r="AS3" s="21"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
       <c r="AT3" s="21"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
+      <c r="AU3" s="21"/>
+      <c r="AV3" s="21"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
       <c r="AZ3" s="19"/>
       <c r="BA3" s="19"/>
       <c r="BB3" s="19"/>
@@ -5789,11 +6725,13 @@
       <c r="BD3" s="19"/>
       <c r="BE3" s="19"/>
       <c r="BF3" s="19"/>
-      <c r="BG3" s="22"/>
-      <c r="BH3" s="22"/>
+      <c r="BG3" s="19"/>
+      <c r="BH3" s="19"/>
       <c r="BI3" s="22"/>
+      <c r="BJ3" s="22"/>
+      <c r="BK3" s="22"/>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -5833,143 +6771,145 @@
       <c r="M4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="S4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="T4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="X4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="Y4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AC4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AD4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AG4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AG4" s="18" t="s">
+      <c r="AI4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AH4" s="18" t="s">
+      <c r="AJ4" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="AI4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ4" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="AK4" s="18" t="s">
         <v>10</v>
       </c>
       <c r="AL4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AM4" s="18" t="s">
+      <c r="AO4" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="AN4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO4" s="18" t="s">
-        <v>24</v>
       </c>
       <c r="AP4" s="18" t="s">
         <v>10</v>
       </c>
       <c r="AQ4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AR4" s="15" t="s">
+      <c r="AT4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AS4" s="15" t="s">
+      <c r="AU4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AT4" s="15" t="s">
+      <c r="AV4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AV4" s="18" t="s">
+      <c r="AX4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AW4" s="18" t="s">
+      <c r="AY4" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="AX4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="AY4" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="AZ4" s="18" t="s">
         <v>10</v>
       </c>
       <c r="BA4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="BB4" s="18" t="s">
+      <c r="BD4" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="BC4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="BD4" s="18" t="s">
-        <v>24</v>
       </c>
       <c r="BE4" s="18" t="s">
         <v>10</v>
       </c>
       <c r="BF4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="BG4" s="15" t="s">
+      <c r="BI4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="BH4" s="15" t="s">
+      <c r="BJ4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="BI4" s="15" t="s">
+      <c r="BK4" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -6021,174 +6961,182 @@
         <v>141.44599999999997</v>
       </c>
       <c r="N5" s="16">
+        <f>L5-M5</f>
+        <v>5.6215000000000259</v>
+      </c>
+      <c r="O5" s="16">
         <f>-COS(L5*PI()/180)+COS(M5*PI()/180)</f>
         <v>5.7290520407796808E-2</v>
       </c>
-      <c r="O5" s="16">
-        <f>N5/(ABS(COS(AVERAGE(L5,M5)*PI()/180)))*100</f>
+      <c r="P5" s="16">
+        <f>O5/(ABS(COS(AVERAGE(L5,M5)*PI()/180)))*100</f>
         <v>7.0585878344713775</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>20</v>
       </c>
-      <c r="R5" s="7">
-        <f t="shared" ref="R5:R14" si="3">S$2</f>
+      <c r="S5" s="7">
+        <f t="shared" ref="S5:S14" si="3">T$2</f>
         <v>3.2240000000000002</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>224.37700000000001</v>
       </c>
-      <c r="T5" s="1">
-        <f>360-S5+R5</f>
+      <c r="U5" s="1">
+        <f>360-T5+S5</f>
         <v>138.84699999999998</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V5" s="1">
         <v>344.10500000000002</v>
       </c>
-      <c r="V5" s="1">
-        <f>U5-180-R5</f>
+      <c r="W5" s="1">
+        <f>V5-180-S5</f>
         <v>160.88100000000003</v>
       </c>
-      <c r="W5" s="9">
-        <f t="shared" ref="W5:W14" si="4">T$2</f>
+      <c r="X5" s="9">
+        <f t="shared" ref="X5:X14" si="4">U$2</f>
         <v>0.79000000000002046</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Y5" s="1">
         <v>152.62200000000001</v>
       </c>
-      <c r="Y5" s="13">
-        <f>X5+W5</f>
+      <c r="Z5" s="13">
+        <f>Y5+X5</f>
         <v>153.41200000000003</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AA5" s="1">
         <v>24.768999999999998</v>
       </c>
-      <c r="AA5" s="13">
-        <f>180-Z5-W5</f>
+      <c r="AB5" s="13">
+        <f>180-AA5-X5</f>
         <v>154.44099999999997</v>
       </c>
-      <c r="AB5" s="16">
-        <f t="shared" ref="AB5:AB14" si="5">AVERAGE(V5,AA5)</f>
+      <c r="AC5" s="16">
+        <f t="shared" ref="AC5:AC14" si="5">AVERAGE(W5,AB5)</f>
         <v>157.661</v>
       </c>
-      <c r="AC5" s="16">
-        <f t="shared" ref="AC5:AC14" si="6">AVERAGE(Y5,T5)</f>
+      <c r="AD5" s="16">
+        <f t="shared" ref="AD5:AD14" si="6">AVERAGE(Z5,U5)</f>
         <v>146.12950000000001</v>
       </c>
-      <c r="AD5" s="16">
-        <f>-COS(AB5*PI()/180)+COS(AC5*PI()/180)</f>
+      <c r="AE5" s="16">
+        <f>AC5-AD5</f>
+        <v>11.531499999999994</v>
+      </c>
+      <c r="AF5" s="16">
+        <f>-COS(AC5*PI()/180)+COS(AD5*PI()/180)</f>
         <v>9.465187397632191E-2</v>
       </c>
-      <c r="AE5" s="16">
-        <f>AD5/(ABS(COS(AVERAGE(AB5,AC5)*PI()/180)))*100</f>
+      <c r="AG5" s="16">
+        <f>AF5/(ABS(COS(AVERAGE(AC5,AD5)*PI()/180)))*100</f>
         <v>10.730436630826262</v>
       </c>
-      <c r="AG5" s="19">
+      <c r="AI5" s="19">
         <v>29</v>
       </c>
-      <c r="AH5" s="19">
+      <c r="AJ5" s="19">
         <v>0.76300000000000001</v>
       </c>
-      <c r="AI5" s="19">
+      <c r="AK5" s="19">
         <f>180-31.701</f>
         <v>148.29900000000001</v>
       </c>
-      <c r="AJ5" s="19">
-        <f t="shared" ref="AJ5:AJ14" si="7">AH5+AI5</f>
+      <c r="AL5" s="19">
+        <f t="shared" ref="AL5:AL14" si="7">AJ5+AK5</f>
         <v>149.06200000000001</v>
       </c>
-      <c r="AK5" s="19">
+      <c r="AM5" s="19">
         <v>156.37100000000001</v>
       </c>
-      <c r="AL5" s="19">
-        <f>AK5-AH5</f>
+      <c r="AN5" s="19">
+        <f>AM5-AJ5</f>
         <v>155.608</v>
       </c>
-      <c r="AM5" s="19">
-        <f t="shared" ref="AM5:AM14" si="8">360-359.482</f>
+      <c r="AO5" s="19">
+        <f t="shared" ref="AO5:AO14" si="8">360-359.482</f>
         <v>0.51799999999997226</v>
       </c>
-      <c r="AN5" s="19">
+      <c r="AP5" s="19">
         <v>154.05799999999999</v>
       </c>
-      <c r="AO5" s="19">
-        <f>AN5-AM5</f>
+      <c r="AQ5" s="19">
+        <f>AP5-AO5</f>
         <v>153.54000000000002</v>
       </c>
-      <c r="AP5" s="19">
+      <c r="AR5" s="19">
         <f>180-25.1</f>
         <v>154.9</v>
       </c>
-      <c r="AQ5" s="19">
-        <f t="shared" ref="AQ5:AQ14" si="9">AM5+AP5</f>
+      <c r="AS5" s="19">
+        <f t="shared" ref="AS5:AS14" si="9">AO5+AR5</f>
         <v>155.41799999999998</v>
       </c>
-      <c r="AR5" s="21">
-        <f t="shared" ref="AR5:AR14" si="10">AVERAGE(AL5,AQ5)</f>
+      <c r="AT5" s="21">
+        <f t="shared" ref="AT5:AT14" si="10">AVERAGE(AN5,AS5)</f>
         <v>155.51299999999998</v>
       </c>
-      <c r="AS5" s="21">
-        <f t="shared" ref="AS5:AS14" si="11">AVERAGE(AJ5,AO5)</f>
+      <c r="AU5" s="21">
+        <f t="shared" ref="AU5:AU14" si="11">AVERAGE(AL5,AQ5)</f>
         <v>151.30100000000002</v>
       </c>
-      <c r="AT5" s="16">
-        <f>-COS(AR5*PI()/180)+COS(AS5*PI()/180)</f>
+      <c r="AV5" s="16">
+        <f>-COS(AT5*PI()/180)+COS(AU5*PI()/180)</f>
         <v>3.290079331212048E-2</v>
       </c>
-      <c r="AV5" s="19">
+      <c r="AX5" s="19">
         <v>42</v>
       </c>
-      <c r="AW5" s="19">
+      <c r="AY5" s="19">
         <v>2.8820000000000001</v>
       </c>
-      <c r="AX5" s="19">
+      <c r="AZ5" s="19">
         <f>180-29.055</f>
         <v>150.94499999999999</v>
       </c>
-      <c r="AY5" s="19">
-        <f t="shared" ref="AY5:AY14" si="12">AW5+AX5</f>
+      <c r="BA5" s="19">
+        <f t="shared" ref="BA5:BA14" si="12">AY5+AZ5</f>
         <v>153.827</v>
       </c>
-      <c r="AZ5" s="19">
+      <c r="BB5" s="19">
         <v>155.92500000000001</v>
       </c>
-      <c r="BA5" s="19">
-        <f>AZ5-AW5</f>
+      <c r="BC5" s="19">
+        <f>BB5-AY5</f>
         <v>153.04300000000001</v>
       </c>
-      <c r="BB5" s="19">
+      <c r="BD5" s="19">
         <f>360-359.15</f>
         <v>0.85000000000002274</v>
       </c>
-      <c r="BC5" s="19">
+      <c r="BE5" s="19">
         <v>160.94200000000001</v>
       </c>
-      <c r="BD5" s="19">
-        <f>BC5-BB5</f>
+      <c r="BF5" s="19">
+        <f>BE5-BD5</f>
         <v>160.09199999999998</v>
       </c>
-      <c r="BE5" s="19">
+      <c r="BG5" s="19">
         <f>180-19.983</f>
         <v>160.017</v>
       </c>
-      <c r="BF5" s="19">
-        <f t="shared" ref="BF5:BF14" si="13">BB5+BE5</f>
+      <c r="BH5" s="19">
+        <f t="shared" ref="BH5:BH14" si="13">BD5+BG5</f>
         <v>160.86700000000002</v>
       </c>
-      <c r="BG5" s="21">
+      <c r="BI5" s="21">
+        <f>AVERAGE(BC5,BH5)</f>
+        <v>156.95500000000001</v>
+      </c>
+      <c r="BJ5" s="21">
         <f>AVERAGE(BA5,BF5)</f>
-        <v>156.95500000000001</v>
-      </c>
-      <c r="BH5" s="21">
-        <f>AVERAGE(AY5,BD5)</f>
         <v>156.95949999999999</v>
       </c>
-      <c r="BI5" s="16">
-        <f>-COS(BG5*PI()/180)+COS(BH5*PI()/180)</f>
+      <c r="BK5" s="16">
+        <f>-COS(BI5*PI()/180)+COS(BJ5*PI()/180)</f>
         <v>-3.074188481344553E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>22</v>
       </c>
@@ -6240,174 +7188,182 @@
         <v>139.03149999999999</v>
       </c>
       <c r="N6" s="16">
-        <f t="shared" ref="N6:N14" si="19">-COS(L6*PI()/180)+COS(M6*PI()/180)</f>
+        <f t="shared" ref="N6:N14" si="19">L6-M6</f>
+        <v>11.927999999999997</v>
+      </c>
+      <c r="O6" s="16">
+        <f t="shared" ref="O6:O14" si="20">-COS(L6*PI()/180)+COS(M6*PI()/180)</f>
         <v>0.11920664350369703</v>
       </c>
-      <c r="O6" s="16">
-        <f t="shared" ref="O6:O14" si="20">N6/(ABS(COS(AVERAGE(L6,M6)*PI()/180)))*100</f>
+      <c r="P6" s="16">
+        <f t="shared" ref="P6:P14" si="21">O6/(ABS(COS(AVERAGE(L6,M6)*PI()/180)))*100</f>
         <v>14.55324450859464</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>24</v>
       </c>
-      <c r="R6" s="7">
+      <c r="S6" s="7">
         <f t="shared" si="3"/>
         <v>3.2240000000000002</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>224.31</v>
       </c>
-      <c r="T6" s="1">
-        <f t="shared" ref="T6:T14" si="21">360-S6+R6</f>
+      <c r="U6" s="1">
+        <f t="shared" ref="U6:U14" si="22">360-T6+S6</f>
         <v>138.91399999999999</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <v>338.31799999999998</v>
       </c>
-      <c r="V6" s="1">
-        <f t="shared" ref="V6:V14" si="22">U6-180-R6</f>
+      <c r="W6" s="1">
+        <f t="shared" ref="W6:W14" si="23">V6-180-S6</f>
         <v>155.09399999999999</v>
       </c>
-      <c r="W6" s="9">
+      <c r="X6" s="9">
         <f t="shared" si="4"/>
         <v>0.79000000000002046</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>140.52799999999999</v>
       </c>
-      <c r="Y6" s="13">
-        <f t="shared" ref="Y6:Y14" si="23">X6+W6</f>
+      <c r="Z6" s="13">
+        <f t="shared" ref="Z6:Z14" si="24">Y6+X6</f>
         <v>141.31800000000001</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AA6" s="1">
         <v>27.408000000000001</v>
       </c>
-      <c r="AA6" s="13">
-        <f t="shared" ref="AA6:AA14" si="24">180-Z6-W6</f>
+      <c r="AB6" s="13">
+        <f t="shared" ref="AB6:AB14" si="25">180-AA6-X6</f>
         <v>151.80199999999996</v>
       </c>
-      <c r="AB6" s="16">
+      <c r="AC6" s="16">
         <f t="shared" si="5"/>
         <v>153.44799999999998</v>
       </c>
-      <c r="AC6" s="16">
+      <c r="AD6" s="16">
         <f t="shared" si="6"/>
         <v>140.11599999999999</v>
       </c>
-      <c r="AD6" s="16">
-        <f t="shared" ref="AD6:AD14" si="25">-COS(AB6*PI()/180)+COS(AC6*PI()/180)</f>
+      <c r="AE6" s="16">
+        <f t="shared" ref="AE6:AE14" si="26">AC6-AD6</f>
+        <v>13.331999999999994</v>
+      </c>
+      <c r="AF6" s="16">
+        <f t="shared" ref="AF6:AF14" si="27">-COS(AC6*PI()/180)+COS(AD6*PI()/180)</f>
         <v>0.12718478836648928</v>
       </c>
-      <c r="AE6" s="16">
-        <f t="shared" ref="AE6:AE14" si="26">AD6/(ABS(COS(AVERAGE(AB6,AC6)*PI()/180)))*100</f>
+      <c r="AG6" s="16">
+        <f t="shared" ref="AG6:AG14" si="28">AF6/(ABS(COS(AVERAGE(AC6,AD6)*PI()/180)))*100</f>
         <v>15.202721319723372</v>
       </c>
-      <c r="AG6" s="19">
+      <c r="AI6" s="19">
         <v>31</v>
       </c>
-      <c r="AH6" s="19">
+      <c r="AJ6" s="19">
         <v>0.76300000000000001</v>
       </c>
-      <c r="AI6" s="19">
+      <c r="AK6" s="19">
         <f>180-33.232</f>
         <v>146.768</v>
       </c>
-      <c r="AJ6" s="19">
+      <c r="AL6" s="19">
         <f t="shared" si="7"/>
         <v>147.53100000000001</v>
       </c>
-      <c r="AK6" s="19">
+      <c r="AM6" s="19">
         <v>153.45500000000001</v>
       </c>
-      <c r="AL6" s="19">
-        <f t="shared" ref="AL6:AL14" si="27">AK6-AH6</f>
+      <c r="AN6" s="19">
+        <f t="shared" ref="AN6:AN14" si="29">AM6-AJ6</f>
         <v>152.69200000000001</v>
       </c>
-      <c r="AM6" s="19">
+      <c r="AO6" s="19">
         <f t="shared" si="8"/>
         <v>0.51799999999997226</v>
       </c>
-      <c r="AN6" s="20">
+      <c r="AP6" s="20">
         <v>151.07400000000001</v>
       </c>
-      <c r="AO6" s="19">
-        <f t="shared" ref="AO6:AO14" si="28">AN6-AM6</f>
+      <c r="AQ6" s="19">
+        <f t="shared" ref="AQ6:AQ14" si="30">AP6-AO6</f>
         <v>150.55600000000004</v>
       </c>
-      <c r="AP6" s="19">
+      <c r="AR6" s="19">
         <f>180-30.379</f>
         <v>149.62100000000001</v>
       </c>
-      <c r="AQ6" s="19">
+      <c r="AS6" s="19">
         <f t="shared" si="9"/>
         <v>150.13899999999998</v>
       </c>
-      <c r="AR6" s="21">
+      <c r="AT6" s="21">
         <f t="shared" si="10"/>
         <v>151.41550000000001</v>
       </c>
-      <c r="AS6" s="21">
+      <c r="AU6" s="21">
         <f t="shared" si="11"/>
         <v>149.04350000000002</v>
       </c>
-      <c r="AT6" s="16">
-        <f t="shared" ref="AT6:AT14" si="29">-COS(AR6*PI()/180)+COS(AS6*PI()/180)</f>
+      <c r="AV6" s="16">
+        <f t="shared" ref="AV6:AV14" si="31">-COS(AT6*PI()/180)+COS(AU6*PI()/180)</f>
         <v>2.0554361992456749E-2</v>
       </c>
-      <c r="AV6" s="19">
+      <c r="AX6" s="19">
         <v>44</v>
       </c>
-      <c r="AW6" s="19">
+      <c r="AY6" s="19">
         <v>2.8820000000000001</v>
       </c>
-      <c r="AX6" s="19">
+      <c r="AZ6" s="19">
         <f>180-30.784</f>
         <v>149.21600000000001</v>
       </c>
-      <c r="AY6" s="19">
+      <c r="BA6" s="19">
         <f t="shared" si="12"/>
         <v>152.09800000000001</v>
       </c>
-      <c r="AZ6" s="19">
+      <c r="BB6" s="19">
         <v>154.179</v>
       </c>
-      <c r="BA6" s="19">
-        <f t="shared" ref="BA6:BA14" si="30">AZ6-AW6</f>
+      <c r="BC6" s="19">
+        <f t="shared" ref="BC6:BC14" si="32">BB6-AY6</f>
         <v>151.297</v>
       </c>
-      <c r="BB6" s="19">
-        <f t="shared" ref="BB6:BB14" si="31">360-359.15</f>
+      <c r="BD6" s="19">
+        <f t="shared" ref="BD6:BD14" si="33">360-359.15</f>
         <v>0.85000000000002274</v>
       </c>
-      <c r="BC6" s="20">
+      <c r="BE6" s="20">
         <v>158.19900000000001</v>
       </c>
-      <c r="BD6" s="19">
-        <f t="shared" ref="BD6:BD14" si="32">BC6-BB6</f>
+      <c r="BF6" s="19">
+        <f t="shared" ref="BF6:BF14" si="34">BE6-BD6</f>
         <v>157.34899999999999</v>
       </c>
-      <c r="BE6" s="19">
+      <c r="BG6" s="19">
         <f>180-23.86</f>
         <v>156.13999999999999</v>
       </c>
-      <c r="BF6" s="19">
-        <f>BB6+BE6</f>
+      <c r="BH6" s="19">
+        <f>BD6+BG6</f>
         <v>156.99</v>
       </c>
-      <c r="BG6" s="21">
-        <f t="shared" ref="BG6:BG14" si="33">AVERAGE(BA6,BF6)</f>
+      <c r="BI6" s="21">
+        <f t="shared" ref="BI6:BI14" si="35">AVERAGE(BC6,BH6)</f>
         <v>154.14350000000002</v>
       </c>
-      <c r="BH6" s="21">
-        <f t="shared" ref="BH6:BH14" si="34">AVERAGE(AY6,BD6)</f>
+      <c r="BJ6" s="21">
+        <f t="shared" ref="BJ6:BJ14" si="36">AVERAGE(BA6,BF6)</f>
         <v>154.7235</v>
       </c>
-      <c r="BI6" s="16">
-        <f t="shared" ref="BI6:BI14" si="35">-COS(BG6*PI()/180)+COS(BH6*PI()/180)</f>
+      <c r="BK6" s="16">
+        <f t="shared" ref="BK6:BK14" si="37">-COS(BI6*PI()/180)+COS(BJ6*PI()/180)</f>
         <v>-4.3686079100259123E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>24</v>
       </c>
@@ -6457,173 +7413,181 @@
       </c>
       <c r="N7" s="16">
         <f t="shared" si="19"/>
-        <v>0.11566253951661187</v>
+        <v>11.256500000000017</v>
       </c>
       <c r="O7" s="16">
         <f t="shared" si="20"/>
+        <v>0.11566253951661187</v>
+      </c>
+      <c r="P7" s="16">
+        <f t="shared" si="21"/>
         <v>14.321003904884838</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>28</v>
       </c>
-      <c r="R7" s="7">
+      <c r="S7" s="7">
         <f t="shared" si="3"/>
         <v>3.2240000000000002</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>227.726</v>
       </c>
-      <c r="T7" s="1">
-        <f t="shared" si="21"/>
+      <c r="U7" s="1">
+        <f t="shared" si="22"/>
         <v>135.49799999999999</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
         <v>321.84300000000002</v>
       </c>
-      <c r="V7" s="1">
-        <f t="shared" si="22"/>
+      <c r="W7" s="1">
+        <f t="shared" si="23"/>
         <v>138.61900000000003</v>
       </c>
-      <c r="W7" s="9">
+      <c r="X7" s="9">
         <f t="shared" si="4"/>
         <v>0.79000000000002046</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Y7" s="1">
         <v>149.19900000000001</v>
       </c>
-      <c r="Y7" s="13">
-        <f t="shared" si="23"/>
+      <c r="Z7" s="13">
+        <f t="shared" si="24"/>
         <v>149.98900000000003</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AA7" s="1">
         <v>27.699000000000002</v>
       </c>
-      <c r="AA7" s="13">
-        <f t="shared" si="24"/>
+      <c r="AB7" s="13">
+        <f t="shared" si="25"/>
         <v>151.51099999999997</v>
       </c>
-      <c r="AB7" s="16">
+      <c r="AC7" s="16">
         <f t="shared" si="5"/>
         <v>145.065</v>
       </c>
-      <c r="AC7" s="16">
+      <c r="AD7" s="16">
         <f t="shared" si="6"/>
         <v>142.74350000000001</v>
       </c>
-      <c r="AD7" s="16">
-        <f t="shared" si="25"/>
-        <v>2.3868889860069187E-2</v>
-      </c>
       <c r="AE7" s="16">
         <f t="shared" si="26"/>
+        <v>2.3214999999999861</v>
+      </c>
+      <c r="AF7" s="16">
+        <f t="shared" si="27"/>
+        <v>2.3868889860069187E-2</v>
+      </c>
+      <c r="AG7" s="16">
+        <f t="shared" si="28"/>
         <v>2.9539477402757859</v>
       </c>
-      <c r="AG7" s="19">
+      <c r="AI7" s="19">
         <v>33</v>
       </c>
-      <c r="AH7" s="19">
+      <c r="AJ7" s="19">
         <v>0.76300000000000001</v>
       </c>
-      <c r="AI7" s="19">
+      <c r="AK7" s="19">
         <f>180-37.405</f>
         <v>142.595</v>
       </c>
-      <c r="AJ7" s="19">
+      <c r="AL7" s="19">
         <f t="shared" si="7"/>
         <v>143.358</v>
       </c>
-      <c r="AK7" s="19">
+      <c r="AM7" s="19">
         <v>147.72399999999999</v>
       </c>
-      <c r="AL7" s="19">
-        <f t="shared" si="27"/>
+      <c r="AN7" s="19">
+        <f t="shared" si="29"/>
         <v>146.96099999999998</v>
       </c>
-      <c r="AM7" s="19">
+      <c r="AO7" s="19">
         <f t="shared" si="8"/>
         <v>0.51799999999997226</v>
       </c>
-      <c r="AN7" s="19">
+      <c r="AP7" s="19">
         <v>148.29900000000001</v>
       </c>
-      <c r="AO7" s="19">
-        <f t="shared" si="28"/>
+      <c r="AQ7" s="19">
+        <f t="shared" si="30"/>
         <v>147.78100000000003</v>
       </c>
-      <c r="AP7" s="19">
+      <c r="AR7" s="19">
         <f>180-37.694</f>
         <v>142.30599999999998</v>
       </c>
-      <c r="AQ7" s="19">
+      <c r="AS7" s="19">
         <f t="shared" si="9"/>
         <v>142.82399999999996</v>
       </c>
-      <c r="AR7" s="21">
+      <c r="AT7" s="21">
         <f t="shared" si="10"/>
         <v>144.89249999999998</v>
       </c>
-      <c r="AS7" s="21">
+      <c r="AU7" s="21">
         <f t="shared" si="11"/>
         <v>145.56950000000001</v>
       </c>
-      <c r="AT7" s="16">
-        <f t="shared" si="29"/>
+      <c r="AV7" s="16">
+        <f t="shared" si="31"/>
         <v>-6.7381926833472994E-3</v>
       </c>
-      <c r="AV7" s="19">
+      <c r="AX7" s="19">
         <v>46</v>
       </c>
-      <c r="AW7" s="19">
+      <c r="AY7" s="19">
         <v>2.8820000000000001</v>
       </c>
-      <c r="AX7" s="19">
+      <c r="AZ7" s="19">
         <f>180-32.347</f>
         <v>147.65299999999999</v>
       </c>
-      <c r="AY7" s="19">
+      <c r="BA7" s="19">
         <f t="shared" si="12"/>
         <v>150.535</v>
       </c>
-      <c r="AZ7" s="19">
+      <c r="BB7" s="19">
         <v>155.55600000000001</v>
       </c>
-      <c r="BA7" s="19">
-        <f t="shared" si="30"/>
+      <c r="BC7" s="19">
+        <f t="shared" si="32"/>
         <v>152.67400000000001</v>
       </c>
-      <c r="BB7" s="19">
-        <f t="shared" si="31"/>
+      <c r="BD7" s="19">
+        <f t="shared" si="33"/>
         <v>0.85000000000002274</v>
       </c>
-      <c r="BC7" s="19">
+      <c r="BE7" s="19">
         <v>154.85499999999999</v>
       </c>
-      <c r="BD7" s="19">
-        <f t="shared" si="32"/>
+      <c r="BF7" s="19">
+        <f t="shared" si="34"/>
         <v>154.00499999999997</v>
       </c>
-      <c r="BE7" s="19">
+      <c r="BG7" s="19">
         <f>180-24.775</f>
         <v>155.22499999999999</v>
       </c>
-      <c r="BF7" s="19">
+      <c r="BH7" s="19">
         <f t="shared" si="13"/>
         <v>156.07500000000002</v>
       </c>
-      <c r="BG7" s="21">
-        <f t="shared" si="33"/>
+      <c r="BI7" s="21">
+        <f t="shared" si="35"/>
         <v>154.37450000000001</v>
       </c>
-      <c r="BH7" s="21">
-        <f t="shared" si="34"/>
+      <c r="BJ7" s="21">
+        <f t="shared" si="36"/>
         <v>152.26999999999998</v>
       </c>
-      <c r="BI7" s="16">
-        <f t="shared" si="35"/>
+      <c r="BK7" s="16">
+        <f t="shared" si="37"/>
         <v>1.649001978972886E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>26</v>
       </c>
@@ -6673,173 +7637,181 @@
       </c>
       <c r="N8" s="16">
         <f t="shared" si="19"/>
-        <v>0.13046545849745173</v>
+        <v>13.715000000000032</v>
       </c>
       <c r="O8" s="16">
         <f t="shared" si="20"/>
+        <v>0.13046545849745173</v>
+      </c>
+      <c r="P8" s="16">
+        <f t="shared" si="21"/>
         <v>15.576734240720075</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>32</v>
       </c>
-      <c r="R8" s="7">
+      <c r="S8" s="7">
         <f t="shared" si="3"/>
         <v>3.2240000000000002</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>214.43899999999999</v>
       </c>
-      <c r="T8" s="1">
-        <f t="shared" si="21"/>
+      <c r="U8" s="1">
+        <f t="shared" si="22"/>
         <v>148.785</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <v>339.88</v>
       </c>
-      <c r="V8" s="1">
-        <f t="shared" si="22"/>
+      <c r="W8" s="1">
+        <f t="shared" si="23"/>
         <v>156.65600000000001</v>
       </c>
-      <c r="W8" s="9">
+      <c r="X8" s="9">
         <f t="shared" si="4"/>
         <v>0.79000000000002046</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Y8" s="1">
         <v>136.46899999999999</v>
       </c>
-      <c r="Y8" s="13">
-        <f t="shared" si="23"/>
+      <c r="Z8" s="13">
+        <f t="shared" si="24"/>
         <v>137.25900000000001</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AA8" s="1">
         <v>23.838999999999999</v>
       </c>
-      <c r="AA8" s="13">
-        <f t="shared" si="24"/>
+      <c r="AB8" s="13">
+        <f t="shared" si="25"/>
         <v>155.37099999999998</v>
       </c>
-      <c r="AB8" s="16">
+      <c r="AC8" s="16">
         <f t="shared" si="5"/>
         <v>156.01349999999999</v>
       </c>
-      <c r="AC8" s="16">
+      <c r="AD8" s="16">
         <f t="shared" si="6"/>
         <v>143.02199999999999</v>
       </c>
-      <c r="AD8" s="16">
-        <f t="shared" si="25"/>
-        <v>0.11477473579862452</v>
-      </c>
       <c r="AE8" s="16">
         <f t="shared" si="26"/>
+        <v>12.991500000000002</v>
+      </c>
+      <c r="AF8" s="16">
+        <f t="shared" si="27"/>
+        <v>0.11477473579862452</v>
+      </c>
+      <c r="AG8" s="16">
+        <f t="shared" si="28"/>
         <v>13.318235485702987</v>
       </c>
-      <c r="AG8" s="19">
+      <c r="AI8" s="19">
         <v>35</v>
       </c>
-      <c r="AH8" s="19">
+      <c r="AJ8" s="19">
         <v>0.76300000000000001</v>
       </c>
-      <c r="AI8" s="19">
+      <c r="AK8" s="19">
         <f>180-38.157</f>
         <v>141.84300000000002</v>
       </c>
-      <c r="AJ8" s="19">
+      <c r="AL8" s="19">
         <f t="shared" si="7"/>
         <v>142.60600000000002</v>
       </c>
-      <c r="AK8" s="19">
+      <c r="AM8" s="19">
         <v>149.036</v>
       </c>
-      <c r="AL8" s="19">
-        <f t="shared" si="27"/>
+      <c r="AN8" s="19">
+        <f t="shared" si="29"/>
         <v>148.273</v>
       </c>
-      <c r="AM8" s="19">
+      <c r="AO8" s="19">
         <f t="shared" si="8"/>
         <v>0.51799999999997226</v>
       </c>
-      <c r="AN8" s="19">
+      <c r="AP8" s="19">
         <v>144.29400000000001</v>
       </c>
-      <c r="AO8" s="19">
-        <f t="shared" si="28"/>
+      <c r="AQ8" s="19">
+        <f t="shared" si="30"/>
         <v>143.77600000000004</v>
       </c>
-      <c r="AP8" s="19">
+      <c r="AR8" s="19">
         <f>180-40.101</f>
         <v>139.899</v>
       </c>
-      <c r="AQ8" s="19">
+      <c r="AS8" s="19">
         <f t="shared" si="9"/>
         <v>140.41699999999997</v>
       </c>
-      <c r="AR8" s="21">
+      <c r="AT8" s="21">
         <f t="shared" si="10"/>
         <v>144.34499999999997</v>
       </c>
-      <c r="AS8" s="21">
+      <c r="AU8" s="21">
         <f t="shared" si="11"/>
         <v>143.19100000000003</v>
       </c>
-      <c r="AT8" s="16">
-        <f t="shared" si="29"/>
+      <c r="AV8" s="16">
+        <f t="shared" si="31"/>
         <v>1.1904321909720572E-2</v>
       </c>
-      <c r="AV8" s="19">
+      <c r="AX8" s="19">
         <v>48</v>
       </c>
-      <c r="AW8" s="19">
+      <c r="AY8" s="19">
         <v>2.8820000000000001</v>
       </c>
-      <c r="AX8" s="19">
+      <c r="AZ8" s="19">
         <f>180-33.69</f>
         <v>146.31</v>
       </c>
-      <c r="AY8" s="19">
+      <c r="BA8" s="19">
         <f t="shared" si="12"/>
         <v>149.19200000000001</v>
       </c>
-      <c r="AZ8" s="19">
+      <c r="BB8" s="19">
         <v>154.435</v>
       </c>
-      <c r="BA8" s="19">
-        <f t="shared" si="30"/>
+      <c r="BC8" s="19">
+        <f t="shared" si="32"/>
         <v>151.553</v>
       </c>
-      <c r="BB8" s="19">
-        <f t="shared" si="31"/>
+      <c r="BD8" s="19">
+        <f t="shared" si="33"/>
         <v>0.85000000000002274</v>
       </c>
-      <c r="BC8" s="19">
+      <c r="BE8" s="19">
         <v>152.24100000000001</v>
       </c>
-      <c r="BD8" s="19">
-        <f t="shared" si="32"/>
+      <c r="BF8" s="19">
+        <f t="shared" si="34"/>
         <v>151.39099999999999</v>
       </c>
-      <c r="BE8" s="19">
+      <c r="BG8" s="19">
         <f>180-26.114</f>
         <v>153.886</v>
       </c>
-      <c r="BF8" s="19">
+      <c r="BH8" s="19">
         <f t="shared" si="13"/>
         <v>154.73600000000002</v>
       </c>
-      <c r="BG8" s="21">
-        <f t="shared" si="33"/>
+      <c r="BI8" s="21">
+        <f t="shared" si="35"/>
         <v>153.14449999999999</v>
       </c>
-      <c r="BH8" s="21">
-        <f t="shared" si="34"/>
+      <c r="BJ8" s="21">
+        <f t="shared" si="36"/>
         <v>150.29149999999998</v>
       </c>
-      <c r="BI8" s="16">
-        <f t="shared" si="35"/>
+      <c r="BK8" s="16">
+        <f t="shared" si="37"/>
         <v>2.3590651640871929E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>28</v>
       </c>
@@ -6889,173 +7861,181 @@
       </c>
       <c r="N9" s="16">
         <f t="shared" si="19"/>
-        <v>0.26815879725977843</v>
+        <v>25.676000000000016</v>
       </c>
       <c r="O9" s="16">
         <f t="shared" si="20"/>
+        <v>0.26815879725977843</v>
+      </c>
+      <c r="P9" s="16">
+        <f t="shared" si="21"/>
         <v>33.628492796965148</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>36</v>
       </c>
-      <c r="R9" s="7">
+      <c r="S9" s="7">
         <f t="shared" si="3"/>
         <v>3.2240000000000002</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>214.91200000000001</v>
       </c>
-      <c r="T9" s="1">
-        <f t="shared" si="21"/>
+      <c r="U9" s="1">
+        <f t="shared" si="22"/>
         <v>148.31199999999998</v>
       </c>
-      <c r="U9" s="1">
+      <c r="V9" s="1">
         <v>342.50400000000002</v>
       </c>
-      <c r="V9" s="1">
-        <f t="shared" si="22"/>
+      <c r="W9" s="1">
+        <f t="shared" si="23"/>
         <v>159.28000000000003</v>
       </c>
-      <c r="W9" s="9">
+      <c r="X9" s="9">
         <f t="shared" si="4"/>
         <v>0.79000000000002046</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <v>144.68899999999999</v>
       </c>
-      <c r="Y9" s="13">
-        <f t="shared" si="23"/>
+      <c r="Z9" s="13">
+        <f t="shared" si="24"/>
         <v>145.47900000000001</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AA9" s="1">
         <v>22.670999999999999</v>
       </c>
-      <c r="AA9" s="13">
-        <f t="shared" si="24"/>
+      <c r="AB9" s="13">
+        <f t="shared" si="25"/>
         <v>156.53899999999999</v>
       </c>
-      <c r="AB9" s="16">
+      <c r="AC9" s="16">
         <f t="shared" si="5"/>
         <v>157.90950000000001</v>
       </c>
-      <c r="AC9" s="16">
+      <c r="AD9" s="16">
         <f t="shared" si="6"/>
         <v>146.8955</v>
       </c>
-      <c r="AD9" s="16">
-        <f t="shared" si="25"/>
-        <v>8.8915175191708551E-2</v>
-      </c>
       <c r="AE9" s="16">
         <f t="shared" si="26"/>
+        <v>11.01400000000001</v>
+      </c>
+      <c r="AF9" s="16">
+        <f t="shared" si="27"/>
+        <v>8.8915175191708551E-2</v>
+      </c>
+      <c r="AG9" s="16">
+        <f t="shared" si="28"/>
         <v>10.033038589664663</v>
       </c>
-      <c r="AG9" s="19">
+      <c r="AI9" s="19">
         <v>37</v>
       </c>
-      <c r="AH9" s="19">
+      <c r="AJ9" s="19">
         <v>0.76300000000000001</v>
       </c>
-      <c r="AI9" s="19">
+      <c r="AK9" s="19">
         <f>180-42.797</f>
         <v>137.203</v>
       </c>
-      <c r="AJ9" s="19">
+      <c r="AL9" s="19">
         <f t="shared" si="7"/>
         <v>137.96600000000001</v>
       </c>
-      <c r="AK9" s="19">
+      <c r="AM9" s="19">
         <v>140.52799999999999</v>
       </c>
-      <c r="AL9" s="19">
-        <f t="shared" si="27"/>
+      <c r="AN9" s="19">
+        <f t="shared" si="29"/>
         <v>139.76499999999999</v>
       </c>
-      <c r="AM9" s="19">
+      <c r="AO9" s="19">
         <f t="shared" si="8"/>
         <v>0.51799999999997226</v>
       </c>
-      <c r="AN9" s="19">
+      <c r="AP9" s="19">
         <v>141.11600000000001</v>
       </c>
-      <c r="AO9" s="19">
-        <f t="shared" si="28"/>
+      <c r="AQ9" s="19">
+        <f t="shared" si="30"/>
         <v>140.59800000000004</v>
       </c>
-      <c r="AP9" s="19">
+      <c r="AR9" s="19">
         <f>180-43.452</f>
         <v>136.548</v>
       </c>
-      <c r="AQ9" s="19">
+      <c r="AS9" s="19">
         <f t="shared" si="9"/>
         <v>137.06599999999997</v>
       </c>
-      <c r="AR9" s="21">
+      <c r="AT9" s="21">
         <f t="shared" si="10"/>
         <v>138.41549999999998</v>
       </c>
-      <c r="AS9" s="21">
+      <c r="AU9" s="21">
         <f t="shared" si="11"/>
         <v>139.28200000000004</v>
       </c>
-      <c r="AT9" s="16">
-        <f t="shared" si="29"/>
+      <c r="AV9" s="16">
+        <f t="shared" si="31"/>
         <v>-9.9517635750989708E-3</v>
       </c>
-      <c r="AV9" s="19">
+      <c r="AX9" s="19">
         <v>50</v>
       </c>
-      <c r="AW9" s="19">
+      <c r="AY9" s="19">
         <v>2.8820000000000001</v>
       </c>
-      <c r="AX9" s="19">
+      <c r="AZ9" s="19">
         <f>180-36.529</f>
         <v>143.471</v>
       </c>
-      <c r="AY9" s="19">
+      <c r="BA9" s="19">
         <f t="shared" si="12"/>
         <v>146.35300000000001</v>
       </c>
-      <c r="AZ9" s="19">
+      <c r="BB9" s="19">
         <v>150.642</v>
       </c>
-      <c r="BA9" s="19">
-        <f t="shared" si="30"/>
+      <c r="BC9" s="19">
+        <f t="shared" si="32"/>
         <v>147.76</v>
       </c>
-      <c r="BB9" s="19">
-        <f t="shared" si="31"/>
+      <c r="BD9" s="19">
+        <f t="shared" si="33"/>
         <v>0.85000000000002274</v>
       </c>
-      <c r="BC9" s="19">
+      <c r="BE9" s="19">
         <v>149.036</v>
       </c>
-      <c r="BD9" s="19">
-        <f t="shared" si="32"/>
+      <c r="BF9" s="19">
+        <f t="shared" si="34"/>
         <v>148.18599999999998</v>
       </c>
-      <c r="BE9" s="19">
+      <c r="BG9" s="19">
         <f>180-27.474</f>
         <v>152.52600000000001</v>
       </c>
-      <c r="BF9" s="19">
+      <c r="BH9" s="19">
         <f t="shared" si="13"/>
         <v>153.37600000000003</v>
       </c>
-      <c r="BG9" s="21">
-        <f t="shared" si="33"/>
+      <c r="BI9" s="21">
+        <f t="shared" si="35"/>
         <v>150.56800000000001</v>
       </c>
-      <c r="BH9" s="21">
-        <f t="shared" si="34"/>
+      <c r="BJ9" s="21">
+        <f t="shared" si="36"/>
         <v>147.26949999999999</v>
       </c>
-      <c r="BI9" s="16">
-        <f t="shared" si="35"/>
+      <c r="BK9" s="16">
+        <f t="shared" si="37"/>
         <v>2.9716423805617342E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30</v>
       </c>
@@ -7105,172 +8085,180 @@
       </c>
       <c r="N10" s="16">
         <f t="shared" si="19"/>
-        <v>0.18606810415669928</v>
+        <v>19.963999999999999</v>
       </c>
       <c r="O10" s="16">
         <f t="shared" si="20"/>
+        <v>0.18606810415669928</v>
+      </c>
+      <c r="P10" s="16">
+        <f t="shared" si="21"/>
         <v>22.05221123956894</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>40</v>
       </c>
-      <c r="R10" s="7">
+      <c r="S10" s="7">
         <f t="shared" si="3"/>
         <v>3.2240000000000002</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <v>212.09299999999999</v>
       </c>
-      <c r="T10" s="1">
-        <f t="shared" si="21"/>
+      <c r="U10" s="1">
+        <f t="shared" si="22"/>
         <v>151.131</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <v>341.952</v>
       </c>
-      <c r="V10" s="1">
-        <f t="shared" si="22"/>
+      <c r="W10" s="1">
+        <f t="shared" si="23"/>
         <v>158.72800000000001</v>
       </c>
-      <c r="W10" s="9">
+      <c r="X10" s="9">
         <f t="shared" si="4"/>
         <v>0.79000000000002046</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Y10" s="1">
         <v>137.24600000000001</v>
       </c>
-      <c r="Y10" s="13">
-        <f t="shared" si="23"/>
+      <c r="Z10" s="13">
+        <f t="shared" si="24"/>
         <v>138.03600000000003</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AA10" s="1">
         <v>23.039000000000001</v>
       </c>
-      <c r="AA10" s="13">
-        <f t="shared" si="24"/>
+      <c r="AB10" s="13">
+        <f t="shared" si="25"/>
         <v>156.17099999999999</v>
       </c>
-      <c r="AB10" s="16">
+      <c r="AC10" s="16">
         <f t="shared" si="5"/>
         <v>157.4495</v>
       </c>
-      <c r="AC10" s="16">
+      <c r="AD10" s="16">
         <f t="shared" si="6"/>
         <v>144.58350000000002</v>
       </c>
-      <c r="AD10" s="16">
-        <f t="shared" si="25"/>
-        <v>0.10858093893066201</v>
-      </c>
       <c r="AE10" s="16">
         <f t="shared" si="26"/>
+        <v>12.865999999999985</v>
+      </c>
+      <c r="AF10" s="16">
+        <f t="shared" si="27"/>
+        <v>0.10858093893066201</v>
+      </c>
+      <c r="AG10" s="16">
+        <f t="shared" si="28"/>
         <v>12.412664908638394</v>
       </c>
-      <c r="AG10" s="19">
+      <c r="AI10" s="19">
         <v>39</v>
       </c>
-      <c r="AH10" s="19">
+      <c r="AJ10" s="19">
         <v>0.76300000000000001</v>
       </c>
-      <c r="AI10" s="19">
+      <c r="AK10" s="19">
         <f>180-47.203</f>
         <v>132.797</v>
       </c>
-      <c r="AJ10" s="19">
+      <c r="AL10" s="19">
         <f t="shared" si="7"/>
         <v>133.56</v>
       </c>
-      <c r="AK10" s="19">
+      <c r="AM10" s="19">
         <v>144.16200000000001</v>
       </c>
-      <c r="AL10" s="19">
-        <f t="shared" si="27"/>
+      <c r="AN10" s="19">
+        <f t="shared" si="29"/>
         <v>143.399</v>
       </c>
-      <c r="AM10" s="19">
+      <c r="AO10" s="19">
         <f t="shared" si="8"/>
         <v>0.51799999999997226</v>
       </c>
-      <c r="AN10" s="19">
+      <c r="AP10" s="19">
         <v>140.90600000000001</v>
       </c>
-      <c r="AO10" s="19">
-        <f t="shared" si="28"/>
+      <c r="AQ10" s="19">
+        <f t="shared" si="30"/>
         <v>140.38800000000003</v>
       </c>
-      <c r="AP10" s="19">
+      <c r="AR10" s="19">
         <v>135</v>
       </c>
-      <c r="AQ10" s="19">
+      <c r="AS10" s="19">
         <f t="shared" si="9"/>
         <v>135.51799999999997</v>
       </c>
-      <c r="AR10" s="21">
+      <c r="AT10" s="21">
         <f t="shared" si="10"/>
         <v>139.45849999999999</v>
       </c>
-      <c r="AS10" s="21">
+      <c r="AU10" s="21">
         <f t="shared" si="11"/>
         <v>136.97400000000002</v>
       </c>
-      <c r="AT10" s="16">
-        <f t="shared" si="29"/>
+      <c r="AV10" s="16">
+        <f t="shared" si="31"/>
         <v>2.8891218105250749E-2</v>
       </c>
-      <c r="AV10" s="19">
+      <c r="AX10" s="19">
         <v>52</v>
       </c>
-      <c r="AW10" s="19">
+      <c r="AY10" s="19">
         <v>2.8820000000000001</v>
       </c>
-      <c r="AX10" s="19">
+      <c r="AZ10" s="19">
         <f>180-39.055</f>
         <v>140.94499999999999</v>
       </c>
-      <c r="AY10" s="19">
+      <c r="BA10" s="19">
         <f t="shared" si="12"/>
         <v>143.827</v>
       </c>
-      <c r="AZ10" s="19">
+      <c r="BB10" s="19">
         <v>152.02099999999999</v>
       </c>
-      <c r="BA10" s="19">
-        <f t="shared" si="30"/>
+      <c r="BC10" s="19">
+        <f t="shared" si="32"/>
         <v>149.13899999999998</v>
       </c>
-      <c r="BB10" s="19">
-        <f t="shared" si="31"/>
+      <c r="BD10" s="19">
+        <f t="shared" si="33"/>
         <v>0.85000000000002274</v>
       </c>
-      <c r="BC10" s="19">
+      <c r="BE10" s="19">
         <v>149.65700000000001</v>
       </c>
-      <c r="BD10" s="19">
-        <f t="shared" si="32"/>
+      <c r="BF10" s="19">
+        <f t="shared" si="34"/>
         <v>148.80699999999999</v>
       </c>
-      <c r="BE10" s="19">
+      <c r="BG10" s="19">
         <f>180-28.072</f>
         <v>151.928</v>
       </c>
-      <c r="BF10" s="19">
+      <c r="BH10" s="19">
         <f t="shared" si="13"/>
         <v>152.77800000000002</v>
       </c>
-      <c r="BG10" s="21">
-        <f t="shared" si="33"/>
+      <c r="BI10" s="21">
+        <f t="shared" si="35"/>
         <v>150.95850000000002</v>
       </c>
-      <c r="BH10" s="21">
-        <f t="shared" si="34"/>
+      <c r="BJ10" s="21">
+        <f t="shared" si="36"/>
         <v>146.31700000000001</v>
       </c>
-      <c r="BI10" s="16">
-        <f t="shared" si="35"/>
+      <c r="BK10" s="16">
+        <f t="shared" si="37"/>
         <v>4.2149613331094016E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>32</v>
       </c>
@@ -7320,173 +8308,181 @@
       </c>
       <c r="N11" s="16">
         <f t="shared" si="19"/>
-        <v>2.8609876455465866E-2</v>
+        <v>2.8020000000000209</v>
       </c>
       <c r="O11" s="16">
         <f t="shared" si="20"/>
+        <v>2.8609876455465866E-2</v>
+      </c>
+      <c r="P11" s="16">
+        <f t="shared" si="21"/>
         <v>3.5278282124566762</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>44</v>
       </c>
-      <c r="R11" s="7">
+      <c r="S11" s="7">
         <f t="shared" si="3"/>
         <v>3.2240000000000002</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>209.05500000000001</v>
       </c>
-      <c r="T11" s="1">
-        <f t="shared" si="21"/>
+      <c r="U11" s="1">
+        <f t="shared" si="22"/>
         <v>154.16899999999998</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <v>339.62400000000002</v>
       </c>
-      <c r="V11" s="1">
-        <f t="shared" si="22"/>
+      <c r="W11" s="1">
+        <f t="shared" si="23"/>
         <v>156.40000000000003</v>
       </c>
-      <c r="W11" s="9">
+      <c r="X11" s="9">
         <f t="shared" si="4"/>
         <v>0.79000000000002046</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Y11" s="1">
         <v>145.43700000000001</v>
       </c>
-      <c r="Y11" s="13">
-        <f t="shared" si="23"/>
+      <c r="Z11" s="13">
+        <f t="shared" si="24"/>
         <v>146.22700000000003</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AA11" s="1">
         <v>25.56</v>
       </c>
-      <c r="AA11" s="13">
-        <f t="shared" si="24"/>
+      <c r="AB11" s="13">
+        <f t="shared" si="25"/>
         <v>153.64999999999998</v>
       </c>
-      <c r="AB11" s="16">
+      <c r="AC11" s="16">
         <f t="shared" si="5"/>
         <v>155.02500000000001</v>
       </c>
-      <c r="AC11" s="16">
+      <c r="AD11" s="16">
         <f t="shared" si="6"/>
         <v>150.19800000000001</v>
       </c>
-      <c r="AD11" s="16">
-        <f t="shared" si="25"/>
-        <v>3.8743997583928658E-2</v>
-      </c>
       <c r="AE11" s="16">
         <f t="shared" si="26"/>
+        <v>4.8269999999999982</v>
+      </c>
+      <c r="AF11" s="16">
+        <f t="shared" si="27"/>
+        <v>3.8743997583928658E-2</v>
+      </c>
+      <c r="AG11" s="16">
+        <f t="shared" si="28"/>
         <v>4.3635161678335894</v>
       </c>
-      <c r="AG11" s="19">
+      <c r="AI11" s="19">
         <v>41</v>
       </c>
-      <c r="AH11" s="19">
+      <c r="AJ11" s="19">
         <v>0.76300000000000001</v>
       </c>
-      <c r="AI11" s="19">
+      <c r="AK11" s="19">
         <f>180-49.236</f>
         <v>130.76400000000001</v>
       </c>
-      <c r="AJ11" s="19">
+      <c r="AL11" s="19">
         <f t="shared" si="7"/>
         <v>131.52700000000002</v>
       </c>
-      <c r="AK11" s="19">
+      <c r="AM11" s="19">
         <v>139.08600000000001</v>
       </c>
-      <c r="AL11" s="19">
-        <f t="shared" si="27"/>
+      <c r="AN11" s="19">
+        <f t="shared" si="29"/>
         <v>138.32300000000001</v>
       </c>
-      <c r="AM11" s="19">
+      <c r="AO11" s="19">
         <f t="shared" si="8"/>
         <v>0.51799999999997226</v>
       </c>
-      <c r="AN11" s="19">
+      <c r="AP11" s="19">
         <v>136.97499999999999</v>
       </c>
-      <c r="AO11" s="19">
-        <f t="shared" si="28"/>
+      <c r="AQ11" s="19">
+        <f t="shared" si="30"/>
         <v>136.45700000000002</v>
       </c>
-      <c r="AP11" s="19">
+      <c r="AR11" s="19">
         <f>180-46.469</f>
         <v>133.53100000000001</v>
       </c>
-      <c r="AQ11" s="19">
+      <c r="AS11" s="19">
         <f t="shared" si="9"/>
         <v>134.04899999999998</v>
       </c>
-      <c r="AR11" s="21">
+      <c r="AT11" s="21">
         <f t="shared" si="10"/>
         <v>136.18599999999998</v>
       </c>
-      <c r="AS11" s="21">
+      <c r="AU11" s="21">
         <f t="shared" si="11"/>
         <v>133.99200000000002</v>
       </c>
-      <c r="AT11" s="16">
-        <f t="shared" si="29"/>
+      <c r="AV11" s="16">
+        <f t="shared" si="31"/>
         <v>2.7033159167473175E-2</v>
       </c>
-      <c r="AV11" s="19">
+      <c r="AX11" s="19">
         <v>54</v>
       </c>
-      <c r="AW11" s="19">
+      <c r="AY11" s="19">
         <v>2.8820000000000001</v>
       </c>
-      <c r="AX11" s="19">
+      <c r="AZ11" s="19">
         <f>180-40.815</f>
         <v>139.185</v>
       </c>
-      <c r="AY11" s="19">
+      <c r="BA11" s="19">
         <f t="shared" si="12"/>
         <v>142.06700000000001</v>
       </c>
-      <c r="AZ11" s="19">
+      <c r="BB11" s="19">
         <v>154.79900000000001</v>
       </c>
-      <c r="BA11" s="19">
-        <f t="shared" si="30"/>
+      <c r="BC11" s="19">
+        <f t="shared" si="32"/>
         <v>151.917</v>
       </c>
-      <c r="BB11" s="19">
-        <f t="shared" si="31"/>
+      <c r="BD11" s="19">
+        <f t="shared" si="33"/>
         <v>0.85000000000002274</v>
       </c>
-      <c r="BC11" s="19">
+      <c r="BE11" s="19">
         <v>149.036</v>
       </c>
-      <c r="BD11" s="19">
-        <f t="shared" si="32"/>
+      <c r="BF11" s="19">
+        <f t="shared" si="34"/>
         <v>148.18599999999998</v>
       </c>
-      <c r="BE11" s="19">
+      <c r="BG11" s="19">
         <f>180-25.821</f>
         <v>154.179</v>
       </c>
-      <c r="BF11" s="19">
+      <c r="BH11" s="19">
         <f t="shared" si="13"/>
         <v>155.02900000000002</v>
       </c>
-      <c r="BG11" s="21">
-        <f t="shared" si="33"/>
+      <c r="BI11" s="21">
+        <f t="shared" si="35"/>
         <v>153.47300000000001</v>
       </c>
-      <c r="BH11" s="21">
-        <f t="shared" si="34"/>
+      <c r="BJ11" s="21">
+        <f t="shared" si="36"/>
         <v>145.12649999999999</v>
       </c>
-      <c r="BI11" s="16">
-        <f t="shared" si="35"/>
+      <c r="BK11" s="16">
+        <f t="shared" si="37"/>
         <v>7.4307583858602033E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>34</v>
       </c>
@@ -7536,172 +8532,180 @@
       </c>
       <c r="N12" s="16">
         <f t="shared" si="19"/>
-        <v>0.12513190573934918</v>
+        <v>12.739500000000021</v>
       </c>
       <c r="O12" s="16">
         <f t="shared" si="20"/>
+        <v>0.12513190573934918</v>
+      </c>
+      <c r="P12" s="16">
+        <f t="shared" si="21"/>
         <v>15.152527093281954</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>48</v>
       </c>
-      <c r="R12" s="7">
+      <c r="S12" s="7">
         <f t="shared" si="3"/>
         <v>3.2240000000000002</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <v>205.602</v>
       </c>
-      <c r="T12" s="1">
-        <f t="shared" si="21"/>
+      <c r="U12" s="1">
+        <f t="shared" si="22"/>
         <v>157.62199999999999</v>
       </c>
-      <c r="U12" s="1">
+      <c r="V12" s="1">
         <v>339.96300000000002</v>
       </c>
-      <c r="V12" s="1">
-        <f t="shared" si="22"/>
+      <c r="W12" s="1">
+        <f t="shared" si="23"/>
         <v>156.73900000000003</v>
       </c>
-      <c r="W12" s="9">
+      <c r="X12" s="9">
         <f t="shared" si="4"/>
         <v>0.79000000000002046</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Y12" s="1">
         <v>143.53100000000001</v>
       </c>
-      <c r="Y12" s="13">
-        <f t="shared" si="23"/>
+      <c r="Z12" s="13">
+        <f t="shared" si="24"/>
         <v>144.32100000000003</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AA12" s="1">
         <v>23.405000000000001</v>
       </c>
-      <c r="AA12" s="13">
-        <f t="shared" si="24"/>
+      <c r="AB12" s="13">
+        <f t="shared" si="25"/>
         <v>155.80499999999998</v>
       </c>
-      <c r="AB12" s="16">
+      <c r="AC12" s="16">
         <f t="shared" si="5"/>
         <v>156.27199999999999</v>
       </c>
-      <c r="AC12" s="16">
+      <c r="AD12" s="16">
         <f t="shared" si="6"/>
         <v>150.97149999999999</v>
       </c>
-      <c r="AD12" s="16">
-        <f t="shared" si="25"/>
-        <v>4.1087609758268639E-2</v>
-      </c>
       <c r="AE12" s="16">
         <f t="shared" si="26"/>
+        <v>5.3004999999999995</v>
+      </c>
+      <c r="AF12" s="16">
+        <f t="shared" si="27"/>
+        <v>4.1087609758268639E-2</v>
+      </c>
+      <c r="AG12" s="16">
+        <f t="shared" si="28"/>
         <v>4.5862824925697439</v>
       </c>
-      <c r="AG12" s="19">
+      <c r="AI12" s="19">
         <v>43</v>
       </c>
-      <c r="AH12" s="19">
+      <c r="AJ12" s="19">
         <v>0.76300000000000001</v>
       </c>
-      <c r="AI12" s="19">
+      <c r="AK12" s="19">
         <v>133.05799999999999</v>
       </c>
-      <c r="AJ12" s="19">
+      <c r="AL12" s="19">
         <f t="shared" si="7"/>
         <v>133.821</v>
       </c>
-      <c r="AK12" s="19">
+      <c r="AM12" s="19">
         <v>135</v>
       </c>
-      <c r="AL12" s="19">
-        <f t="shared" si="27"/>
+      <c r="AN12" s="19">
+        <f t="shared" si="29"/>
         <v>134.23699999999999</v>
       </c>
-      <c r="AM12" s="19">
+      <c r="AO12" s="19">
         <f t="shared" si="8"/>
         <v>0.51799999999997226</v>
       </c>
-      <c r="AN12" s="19">
+      <c r="AP12" s="19">
         <v>131.49600000000001</v>
       </c>
-      <c r="AO12" s="19">
-        <f t="shared" si="28"/>
+      <c r="AQ12" s="19">
+        <f t="shared" si="30"/>
         <v>130.97800000000004</v>
       </c>
-      <c r="AP12" s="19">
+      <c r="AR12" s="19">
         <f>180-52.125</f>
         <v>127.875</v>
       </c>
-      <c r="AQ12" s="19">
+      <c r="AS12" s="19">
         <f t="shared" si="9"/>
         <v>128.39299999999997</v>
       </c>
-      <c r="AR12" s="21">
+      <c r="AT12" s="21">
         <f t="shared" si="10"/>
         <v>131.315</v>
       </c>
-      <c r="AS12" s="21">
+      <c r="AU12" s="21">
         <f t="shared" si="11"/>
         <v>132.39950000000002</v>
       </c>
-      <c r="AT12" s="16">
-        <f t="shared" si="29"/>
+      <c r="AV12" s="16">
+        <f t="shared" si="31"/>
         <v>-1.4097617488495473E-2</v>
       </c>
-      <c r="AV12" s="19">
+      <c r="AX12" s="19">
         <v>56</v>
       </c>
-      <c r="AW12" s="19">
+      <c r="AY12" s="19">
         <v>2.8820000000000001</v>
       </c>
-      <c r="AX12" s="19">
+      <c r="AZ12" s="19">
         <f>180-37.266</f>
         <v>142.73400000000001</v>
       </c>
-      <c r="AY12" s="19">
+      <c r="BA12" s="19">
         <f t="shared" si="12"/>
         <v>145.61600000000001</v>
       </c>
-      <c r="AZ12" s="19">
+      <c r="BB12" s="19">
         <v>150.803</v>
       </c>
-      <c r="BA12" s="19">
-        <f t="shared" si="30"/>
+      <c r="BC12" s="19">
+        <f t="shared" si="32"/>
         <v>147.92099999999999</v>
       </c>
-      <c r="BB12" s="19">
-        <f t="shared" si="31"/>
+      <c r="BD12" s="19">
+        <f t="shared" si="33"/>
         <v>0.85000000000002274</v>
       </c>
-      <c r="BC12" s="19">
+      <c r="BE12" s="19">
         <v>146.31</v>
       </c>
-      <c r="BD12" s="19">
-        <f t="shared" si="32"/>
+      <c r="BF12" s="19">
+        <f t="shared" si="34"/>
         <v>145.45999999999998</v>
       </c>
-      <c r="BE12" s="19">
+      <c r="BG12" s="19">
         <f>180-30.964</f>
         <v>149.036</v>
       </c>
-      <c r="BF12" s="19">
+      <c r="BH12" s="19">
         <f t="shared" si="13"/>
         <v>149.88600000000002</v>
       </c>
-      <c r="BG12" s="21">
-        <f t="shared" si="33"/>
+      <c r="BI12" s="21">
+        <f t="shared" si="35"/>
         <v>148.90350000000001</v>
       </c>
-      <c r="BH12" s="21">
-        <f t="shared" si="34"/>
+      <c r="BJ12" s="21">
+        <f t="shared" si="36"/>
         <v>145.53800000000001</v>
       </c>
-      <c r="BI12" s="16">
-        <f t="shared" si="35"/>
+      <c r="BK12" s="16">
+        <f t="shared" si="37"/>
         <v>3.1796974044850934E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>36</v>
       </c>
@@ -7751,173 +8755,181 @@
       </c>
       <c r="N13" s="16">
         <f t="shared" si="19"/>
-        <v>0.11736990041398754</v>
+        <v>13.895000000000039</v>
       </c>
       <c r="O13" s="16">
         <f t="shared" si="20"/>
+        <v>0.11736990041398754</v>
+      </c>
+      <c r="P13" s="16">
+        <f t="shared" si="21"/>
         <v>13.422523087966603</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>52</v>
       </c>
-      <c r="R13" s="7">
+      <c r="S13" s="7">
         <f t="shared" si="3"/>
         <v>3.2240000000000002</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>207.87200000000001</v>
       </c>
-      <c r="T13" s="1">
-        <f t="shared" si="21"/>
+      <c r="U13" s="1">
+        <f t="shared" si="22"/>
         <v>155.35199999999998</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="1">
         <v>343.91800000000001</v>
       </c>
-      <c r="V13" s="1">
-        <f t="shared" si="22"/>
+      <c r="W13" s="1">
+        <f t="shared" si="23"/>
         <v>160.69400000000002</v>
       </c>
-      <c r="W13" s="9">
+      <c r="X13" s="9">
         <f t="shared" si="4"/>
         <v>0.79000000000002046</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
         <v>153.10400000000001</v>
       </c>
-      <c r="Y13" s="13">
-        <f t="shared" si="23"/>
+      <c r="Z13" s="13">
+        <f t="shared" si="24"/>
         <v>153.89400000000003</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AA13" s="1">
         <v>24.727</v>
       </c>
-      <c r="AA13" s="13">
-        <f t="shared" si="24"/>
+      <c r="AB13" s="13">
+        <f t="shared" si="25"/>
         <v>154.48299999999998</v>
       </c>
-      <c r="AB13" s="16">
+      <c r="AC13" s="16">
         <f t="shared" si="5"/>
         <v>157.58850000000001</v>
       </c>
-      <c r="AC13" s="16">
+      <c r="AD13" s="16">
         <f t="shared" si="6"/>
         <v>154.62299999999999</v>
       </c>
-      <c r="AD13" s="16">
-        <f t="shared" si="25"/>
-        <v>2.0962123589296278E-2</v>
-      </c>
       <c r="AE13" s="16">
         <f t="shared" si="26"/>
+        <v>2.96550000000002</v>
+      </c>
+      <c r="AF13" s="16">
+        <f t="shared" si="27"/>
+        <v>2.0962123589296278E-2</v>
+      </c>
+      <c r="AG13" s="16">
+        <f t="shared" si="28"/>
         <v>2.2927099622480323</v>
       </c>
-      <c r="AG13" s="19">
+      <c r="AI13" s="19">
         <v>45</v>
       </c>
-      <c r="AH13" s="19">
+      <c r="AJ13" s="19">
         <v>0.76300000000000001</v>
       </c>
-      <c r="AI13" s="19">
+      <c r="AK13" s="19">
         <f>180-54.638</f>
         <v>125.36199999999999</v>
       </c>
-      <c r="AJ13" s="19">
+      <c r="AL13" s="19">
         <f t="shared" si="7"/>
         <v>126.125</v>
       </c>
-      <c r="AK13" s="19">
+      <c r="AM13" s="19">
         <v>132.13800000000001</v>
       </c>
-      <c r="AL13" s="19">
-        <f t="shared" si="27"/>
+      <c r="AN13" s="19">
+        <f t="shared" si="29"/>
         <v>131.375</v>
       </c>
-      <c r="AM13" s="19">
+      <c r="AO13" s="19">
         <f t="shared" si="8"/>
         <v>0.51799999999997226</v>
       </c>
-      <c r="AN13" s="19">
+      <c r="AP13" s="19">
         <v>133.02500000000001</v>
       </c>
-      <c r="AO13" s="19">
-        <f t="shared" si="28"/>
+      <c r="AQ13" s="19">
+        <f t="shared" si="30"/>
         <v>132.50700000000003</v>
       </c>
-      <c r="AP13" s="19">
+      <c r="AR13" s="19">
         <f>180-56.31</f>
         <v>123.69</v>
       </c>
-      <c r="AQ13" s="19">
+      <c r="AS13" s="19">
         <f t="shared" si="9"/>
         <v>124.20799999999997</v>
       </c>
-      <c r="AR13" s="21">
+      <c r="AT13" s="21">
         <f t="shared" si="10"/>
         <v>127.79149999999998</v>
       </c>
-      <c r="AS13" s="21">
+      <c r="AU13" s="21">
         <f t="shared" si="11"/>
         <v>129.31600000000003</v>
       </c>
-      <c r="AT13" s="16">
-        <f t="shared" si="29"/>
+      <c r="AV13" s="16">
+        <f t="shared" si="31"/>
         <v>-2.0807119828304188E-2</v>
       </c>
-      <c r="AV13" s="19">
+      <c r="AX13" s="19">
         <v>58</v>
       </c>
-      <c r="AW13" s="19">
+      <c r="AY13" s="19">
         <v>2.8820000000000001</v>
       </c>
-      <c r="AX13" s="19">
+      <c r="AZ13" s="19">
         <f>180-41.906</f>
         <v>138.09399999999999</v>
       </c>
-      <c r="AY13" s="19">
+      <c r="BA13" s="19">
         <f t="shared" si="12"/>
         <v>140.976</v>
       </c>
-      <c r="AZ13" s="19">
+      <c r="BB13" s="19">
         <v>151.50399999999999</v>
       </c>
-      <c r="BA13" s="19">
-        <f t="shared" si="30"/>
+      <c r="BC13" s="19">
+        <f t="shared" si="32"/>
         <v>148.62199999999999</v>
       </c>
-      <c r="BB13" s="19">
-        <f t="shared" si="31"/>
+      <c r="BD13" s="19">
+        <f t="shared" si="33"/>
         <v>0.85000000000002274</v>
       </c>
-      <c r="BC13" s="19">
+      <c r="BE13" s="19">
         <v>146.65899999999999</v>
       </c>
-      <c r="BD13" s="19">
-        <f t="shared" si="32"/>
+      <c r="BF13" s="19">
+        <f t="shared" si="34"/>
         <v>145.80899999999997</v>
       </c>
-      <c r="BE13" s="19">
+      <c r="BG13" s="19">
         <f>180-35.91</f>
         <v>144.09</v>
       </c>
-      <c r="BF13" s="19">
+      <c r="BH13" s="19">
         <f t="shared" si="13"/>
         <v>144.94000000000003</v>
       </c>
-      <c r="BG13" s="21">
-        <f t="shared" si="33"/>
+      <c r="BI13" s="21">
+        <f t="shared" si="35"/>
         <v>146.78100000000001</v>
       </c>
-      <c r="BH13" s="21">
-        <f t="shared" si="34"/>
+      <c r="BJ13" s="21">
+        <f t="shared" si="36"/>
         <v>143.39249999999998</v>
       </c>
-      <c r="BI13" s="16">
-        <f t="shared" si="35"/>
+      <c r="BK13" s="16">
+        <f t="shared" si="37"/>
         <v>3.3843265953284907E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>38</v>
       </c>
@@ -7967,173 +8979,181 @@
       </c>
       <c r="N14" s="16">
         <f t="shared" si="19"/>
-        <v>7.364286245761209E-2</v>
+        <v>7.8090000000000259</v>
       </c>
       <c r="O14" s="16">
         <f t="shared" si="20"/>
+        <v>7.364286245761209E-2</v>
+      </c>
+      <c r="P14" s="16">
+        <f t="shared" si="21"/>
         <v>8.7546536824878931</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>56</v>
       </c>
-      <c r="R14" s="7">
+      <c r="S14" s="7">
         <f t="shared" si="3"/>
         <v>3.2240000000000002</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <v>213.453</v>
       </c>
-      <c r="T14" s="1">
-        <f t="shared" si="21"/>
+      <c r="U14" s="1">
+        <f t="shared" si="22"/>
         <v>149.77099999999999</v>
       </c>
-      <c r="U14" s="1">
+      <c r="V14" s="1">
         <v>341.33300000000003</v>
       </c>
-      <c r="V14" s="1">
-        <f t="shared" si="22"/>
+      <c r="W14" s="1">
+        <f t="shared" si="23"/>
         <v>158.10900000000004</v>
       </c>
-      <c r="W14" s="9">
+      <c r="X14" s="9">
         <f t="shared" si="4"/>
         <v>0.79000000000002046</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Y14" s="1">
         <v>156.69499999999999</v>
       </c>
-      <c r="Y14" s="13">
-        <f t="shared" si="23"/>
+      <c r="Z14" s="13">
+        <f t="shared" si="24"/>
         <v>157.48500000000001</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AA14" s="1">
         <v>26.565000000000001</v>
       </c>
-      <c r="AA14" s="13">
-        <f t="shared" si="24"/>
+      <c r="AB14" s="13">
+        <f t="shared" si="25"/>
         <v>152.64499999999998</v>
       </c>
-      <c r="AB14" s="16">
+      <c r="AC14" s="16">
         <f t="shared" si="5"/>
         <v>155.37700000000001</v>
       </c>
-      <c r="AC14" s="16">
+      <c r="AD14" s="16">
         <f t="shared" si="6"/>
         <v>153.62799999999999</v>
       </c>
-      <c r="AD14" s="16">
-        <f t="shared" si="25"/>
-        <v>1.313998695963281E-2</v>
-      </c>
       <c r="AE14" s="16">
         <f t="shared" si="26"/>
+        <v>1.7490000000000236</v>
+      </c>
+      <c r="AF14" s="16">
+        <f t="shared" si="27"/>
+        <v>1.313998695963281E-2</v>
+      </c>
+      <c r="AG14" s="16">
+        <f t="shared" si="28"/>
         <v>1.4557863657284966</v>
       </c>
-      <c r="AG14" s="19">
+      <c r="AI14" s="19">
         <v>47</v>
       </c>
-      <c r="AH14" s="19">
+      <c r="AJ14" s="19">
         <v>0.76300000000000001</v>
       </c>
-      <c r="AI14" s="19">
+      <c r="AK14" s="19">
         <f>180-46.79</f>
         <v>133.21</v>
       </c>
-      <c r="AJ14" s="19">
+      <c r="AL14" s="19">
         <f t="shared" si="7"/>
         <v>133.97300000000001</v>
       </c>
-      <c r="AK14" s="19">
+      <c r="AM14" s="19">
         <v>142.696</v>
       </c>
-      <c r="AL14" s="19">
-        <f t="shared" si="27"/>
+      <c r="AN14" s="19">
+        <f t="shared" si="29"/>
         <v>141.93299999999999</v>
       </c>
-      <c r="AM14" s="19">
+      <c r="AO14" s="19">
         <f t="shared" si="8"/>
         <v>0.51799999999997226</v>
       </c>
-      <c r="AN14" s="19">
+      <c r="AP14" s="19">
         <v>125.70699999999999</v>
       </c>
-      <c r="AO14" s="19">
-        <f t="shared" si="28"/>
+      <c r="AQ14" s="19">
+        <f t="shared" si="30"/>
         <v>125.18900000000002</v>
       </c>
-      <c r="AP14" s="19">
+      <c r="AR14" s="19">
         <f>180-51.009</f>
         <v>128.99099999999999</v>
       </c>
-      <c r="AQ14" s="19">
+      <c r="AS14" s="19">
         <f t="shared" si="9"/>
         <v>129.50899999999996</v>
       </c>
-      <c r="AR14" s="21">
+      <c r="AT14" s="21">
         <f t="shared" si="10"/>
         <v>135.72099999999998</v>
       </c>
-      <c r="AS14" s="21">
+      <c r="AU14" s="21">
         <f t="shared" si="11"/>
         <v>129.58100000000002</v>
       </c>
-      <c r="AT14" s="16">
-        <f t="shared" si="29"/>
+      <c r="AV14" s="16">
+        <f t="shared" si="31"/>
         <v>7.8780225359781686E-2</v>
       </c>
-      <c r="AV14" s="19">
+      <c r="AX14" s="19">
         <v>60</v>
       </c>
-      <c r="AW14" s="19">
+      <c r="AY14" s="19">
         <v>2.8820000000000001</v>
       </c>
-      <c r="AX14" s="19">
+      <c r="AZ14" s="19">
         <f>180-34.33</f>
         <v>145.67000000000002</v>
       </c>
-      <c r="AY14" s="19">
+      <c r="BA14" s="19">
         <f t="shared" si="12"/>
         <v>148.55200000000002</v>
       </c>
-      <c r="AZ14" s="19">
+      <c r="BB14" s="19">
         <v>147.529</v>
       </c>
-      <c r="BA14" s="19">
-        <f t="shared" si="30"/>
+      <c r="BC14" s="19">
+        <f t="shared" si="32"/>
         <v>144.64699999999999</v>
       </c>
-      <c r="BB14" s="19">
-        <f t="shared" si="31"/>
+      <c r="BD14" s="19">
+        <f t="shared" si="33"/>
         <v>0.85000000000002274</v>
       </c>
-      <c r="BC14" s="19">
+      <c r="BE14" s="19">
         <v>148.86099999999999</v>
       </c>
-      <c r="BD14" s="19">
-        <f t="shared" si="32"/>
+      <c r="BF14" s="19">
+        <f t="shared" si="34"/>
         <v>148.01099999999997</v>
       </c>
-      <c r="BE14" s="19">
+      <c r="BG14" s="19">
         <f>180-38.047</f>
         <v>141.953</v>
       </c>
-      <c r="BF14" s="19">
+      <c r="BH14" s="19">
         <f t="shared" si="13"/>
         <v>142.80300000000003</v>
       </c>
-      <c r="BG14" s="21">
-        <f t="shared" si="33"/>
+      <c r="BI14" s="21">
+        <f t="shared" si="35"/>
         <v>143.72500000000002</v>
       </c>
-      <c r="BH14" s="21">
-        <f t="shared" si="34"/>
+      <c r="BJ14" s="21">
+        <f t="shared" si="36"/>
         <v>148.28149999999999</v>
       </c>
-      <c r="BI14" s="16">
-        <f t="shared" si="35"/>
+      <c r="BK14" s="16">
+        <f t="shared" si="37"/>
         <v>-4.4454877681858296E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:61" s="26" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" s="26" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L15" s="28">
         <f>AVERAGE(L5:L14)</f>
         <v>152.12344999999999</v>
@@ -8142,112 +9162,123 @@
         <f>AVERAGE(M5:M14)</f>
         <v>139.58279999999999</v>
       </c>
-      <c r="AB15" s="28">
-        <f>AVERAGE(AB5:AB14)</f>
-        <v>155.18090000000001</v>
-      </c>
+      <c r="N15" s="28"/>
       <c r="AC15" s="28">
         <f>AVERAGE(AC5:AC14)</f>
+        <v>155.18090000000001</v>
+      </c>
+      <c r="AD15" s="28">
+        <f>AVERAGE(AD5:AD14)</f>
         <v>147.29104999999998</v>
       </c>
+      <c r="AE15" s="28"/>
     </row>
-    <row r="16" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="L16" s="13">
         <f>AVERAGE(L15:M15)</f>
         <v>145.85312499999998</v>
       </c>
-      <c r="N16" s="23" t="s">
-        <v>33</v>
+      <c r="N16" s="13">
+        <f>AVERAGE(N5:N14)</f>
+        <v>12.540650000000019</v>
       </c>
       <c r="O16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="Q16"/>
-      <c r="AB16" s="13">
-        <f>AVERAGE(AB15:AC15)</f>
+      <c r="P16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16"/>
+      <c r="AC16" s="13">
+        <f>AVERAGE(AC15:AD15)</f>
         <v>151.235975</v>
       </c>
-      <c r="AD16" s="23" t="s">
+      <c r="AF16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AE16" s="23" t="s">
+      <c r="AG16" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="N17" s="16">
-        <f>AVERAGE(N5:N14)</f>
-        <v>0.12216066084084498</v>
+      <c r="N17" s="22">
+        <f>_xlfn.STDEV.S(N5:N14)</f>
+        <v>6.650190319122868</v>
       </c>
       <c r="O17" s="16">
         <f>AVERAGE(O5:O14)</f>
+        <v>0.12216066084084498</v>
+      </c>
+      <c r="P17" s="16">
+        <f>AVERAGE(P5:P14)</f>
         <v>14.804780660139812</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="AD17" s="16">
-        <f>AVERAGE(AD5:AD14)</f>
+      <c r="R17" s="13"/>
+      <c r="AF17" s="16">
+        <f>AVERAGE(AF5:AF14)</f>
         <v>6.7191012001500183E-2</v>
       </c>
-      <c r="AE17" s="16">
-        <f>AVERAGE(AE5:AE14)</f>
+      <c r="AG17" s="16">
+        <f>AVERAGE(AG5:AG14)</f>
         <v>7.7349339663211323</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
-      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="Q3:AA3"/>
+    <mergeCell ref="R3:AB3"/>
     <mergeCell ref="A3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>